--- a/docs/oncocore-TNMClinicalStageGroup.xlsx
+++ b/docs/oncocore-TNMClinicalStageGroup.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3357" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="466">
   <si>
     <t>Path</t>
   </si>
@@ -423,24 +423,24 @@
     <t>open</t>
   </si>
   <si>
-    <t>recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Recorder-extension]]} {[]}
+    <t>relatedcancercondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-RelatedCancerCondition-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The recorder of the information, if other than the information originator. For example, the nurse taking a list of medications reported by the patient.</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension]]} {[]}
+    <t>Cancer condition this information relates to.</t>
+  </si>
+  <si>
+    <t>cancerstagetiming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>The entity this condition or observation relates to, for example, a related person. The Focus is only required if the person or thing observed is different than the patient. Focus should not be an anatomical location. Examples: The focus for cancer progression would be the cancer condition; for wound length, an instance of a wound (a condition).</t>
+    <t>Indicates when staging was done, in terms of treatment landmarks.</t>
   </si>
   <si>
     <t>Observation.extension.id</t>
@@ -477,39 +477,10 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Focus-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-DomainResource]]}
-CodeableConcept {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>cancerstagetiming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Indicates when staging was done, in terms of treatment landmarks.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/fhirURL/StructureDefinition/oncocore-CancerStageTiming-extension"/&gt;</t>
   </si>
   <si>
     <t>Observation.extension.valueCodeableConcept</t>
@@ -519,7 +490,16 @@
 </t>
   </si>
   <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerStageTimingVS</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Observation.extension.valueCodeableConcept.id</t>
@@ -849,7 +829,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
 </t>
   </si>
   <si>
@@ -879,7 +859,7 @@
     <t>Observation.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-encounter-Encounter]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
 </t>
   </si>
   <si>
@@ -953,7 +933,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Practitioner], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Organization], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Patient], CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-RelatedPerson]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner]]}
 </t>
   </si>
   <si>
@@ -1149,7 +1129,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-entity-Device]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device]]}
 </t>
   </si>
   <si>
@@ -1363,7 +1343,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/fhirURL/StructureDefinition/shr-base-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
 </t>
   </si>
   <si>
@@ -1623,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM104"/>
+  <dimension ref="A1:AM99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1632,44 +1612,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.37890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.95703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.83984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.6328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="26.15625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="26.734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="128.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="102.734375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="22.0078125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="124.46875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="22.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3460,7 +3440,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
@@ -3930,13 +3910,11 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3954,7 +3932,7 @@
         <v>42</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>40</v>
@@ -3980,17 +3958,15 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>51</v>
@@ -4005,11 +3981,13 @@
         <v>42</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="K23" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>62</v>
+      </c>
       <c r="L23" t="s" s="2">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4059,15 +4037,11 @@
       <c r="AD23" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE23" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG23" s="2"/>
       <c r="AH23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4078,7 +4052,7 @@
         <v>42</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -4086,18 +4060,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>42</v>
@@ -4109,15 +4083,17 @@
         <v>42</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>42</v>
@@ -4165,15 +4141,11 @@
       <c r="AD24" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG24" s="2"/>
       <c r="AH24" t="s" s="2">
         <v>42</v>
       </c>
@@ -4184,7 +4156,7 @@
         <v>42</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -4192,7 +4164,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4200,10 +4172,10 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>42</v>
@@ -4212,19 +4184,23 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4260,26 +4236,20 @@
         <v>42</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>42</v>
       </c>
@@ -4287,10 +4257,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4298,9 +4268,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4318,16 +4290,16 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4336,7 +4308,7 @@
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>42</v>
@@ -4377,15 +4349,11 @@
       <c r="AD26" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE26" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="AE26" s="2"/>
       <c r="AF26" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG26" s="2"/>
       <c r="AH26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4396,7 +4364,7 @@
         <v>42</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>42</v>
@@ -4404,7 +4372,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4412,7 +4380,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>51</v>
@@ -4427,13 +4395,13 @@
         <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>152</v>
+        <v>63</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4460,11 +4428,13 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>42</v>
@@ -4481,15 +4451,11 @@
       <c r="AD27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE27" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="AE27" s="2"/>
       <c r="AF27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG27" s="2"/>
       <c r="AH27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4500,7 +4466,7 @@
         <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4508,18 +4474,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4531,15 +4497,17 @@
         <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>42</v>
@@ -4610,18 +4578,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4630,27 +4598,29 @@
         <v>42</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4703,10 +4673,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4714,7 +4684,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4722,10 +4692,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -4737,20 +4707,18 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4786,14 +4754,16 @@
         <v>42</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE30" s="2"/>
       <c r="AF30" t="s" s="2">
@@ -4807,10 +4777,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4818,17 +4788,15 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>51</v>
@@ -4843,22 +4811,24 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="N31" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>42</v>
@@ -4911,10 +4881,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4922,7 +4892,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4942,19 +4912,21 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5013,10 +4985,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -5024,18 +4996,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5044,21 +5016,23 @@
         <v>42</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
@@ -5117,10 +5091,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5128,7 +5102,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5151,26 +5125,26 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>42</v>
@@ -5223,10 +5197,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5234,39 +5208,39 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5327,10 +5301,10 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5338,7 +5312,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5349,7 +5323,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5358,27 +5332,27 @@
         <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>104</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>193</v>
+        <v>42</v>
       </c>
       <c r="R36" t="s" s="2">
         <v>42</v>
@@ -5431,18 +5405,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5450,7 +5424,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
@@ -5459,23 +5433,23 @@
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5500,13 +5474,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5535,18 +5509,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>42</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5566,23 +5540,21 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5606,13 +5578,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5641,18 +5613,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5660,7 +5632,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5675,19 +5647,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5712,13 +5682,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5747,51 +5717,49 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5854,7 +5822,7 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5862,11 +5830,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5885,18 +5853,18 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5955,18 +5923,18 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5977,29 +5945,31 @@
         <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N42" t="s" s="2">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6024,28 +5994,26 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
@@ -6059,26 +6027,28 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6090,20 +6060,18 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -6128,13 +6096,13 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>42</v>
@@ -6166,15 +6134,15 @@
         <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6182,7 +6150,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>51</v>
@@ -6194,21 +6162,19 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>246</v>
+        <v>63</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6232,13 +6198,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6267,13 +6233,13 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -6282,14 +6248,14 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6301,15 +6267,17 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6384,14 +6352,14 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6400,27 +6368,29 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>42</v>
@@ -6473,10 +6443,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6484,7 +6454,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6492,10 +6462,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6507,20 +6477,18 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6556,14 +6524,16 @@
         <v>42</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE47" s="2"/>
       <c r="AF47" t="s" s="2">
@@ -6577,10 +6547,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6588,17 +6558,15 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>51</v>
@@ -6613,22 +6581,24 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>42</v>
@@ -6681,10 +6651,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6692,7 +6662,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6712,19 +6682,21 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6783,10 +6755,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6794,18 +6766,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6814,21 +6786,23 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>69</v>
+        <v>199</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6887,10 +6861,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6898,7 +6872,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6921,26 +6895,26 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>42</v>
@@ -6993,10 +6967,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -7012,7 +6986,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7027,18 +7001,20 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7085,11 +7061,15 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" s="2"/>
+      <c r="AE52" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7097,18 +7077,18 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>188</v>
+        <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7128,27 +7108,27 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>104</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>264</v>
+        <v>42</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>42</v>
@@ -7201,18 +7181,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>195</v>
+        <v>277</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7235,17 +7215,19 @@
         <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>199</v>
+        <v>284</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7305,18 +7287,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7339,20 +7321,18 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7411,18 +7391,18 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>208</v>
+        <v>292</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7433,7 +7413,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7445,19 +7425,17 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>296</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
@@ -7517,18 +7495,18 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>215</v>
+        <v>300</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>216</v>
+        <v>301</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7551,20 +7529,16 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7588,13 +7562,11 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7611,11 +7583,15 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7623,18 +7599,18 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>274</v>
+        <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7657,17 +7633,19 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>278</v>
+        <v>150</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7692,13 +7670,11 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7721,28 +7697,28 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>282</v>
+        <v>125</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>284</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7758,22 +7734,20 @@
         <v>42</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>286</v>
+        <v>150</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -7798,13 +7772,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7833,18 +7807,18 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>293</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7864,21 +7838,21 @@
         <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7937,18 +7911,18 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>300</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7959,7 +7933,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7968,20 +7942,22 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>302</v>
+        <v>150</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8006,13 +7982,11 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8030,13 +8004,13 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
@@ -8045,18 +8019,18 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>308</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8076,16 +8050,16 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>311</v>
+        <v>63</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8112,11 +8086,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8133,15 +8109,11 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8152,7 +8124,7 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8160,18 +8132,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8183,20 +8155,18 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>316</v>
+        <v>69</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
       </c>
@@ -8220,11 +8190,13 @@
         <v>42</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X63" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y63" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>42</v>
@@ -8247,16 +8219,16 @@
       </c>
       <c r="AG63" s="2"/>
       <c r="AH63" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>321</v>
+        <v>64</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>42</v>
@@ -8264,18 +8236,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>42</v>
@@ -8284,20 +8256,22 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K64" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M64" s="2"/>
+      <c r="M64" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N64" t="s" s="2">
-        <v>326</v>
+        <v>161</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
@@ -8322,13 +8296,13 @@
         <v>42</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>42</v>
@@ -8357,10 +8331,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>330</v>
+        <v>164</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8368,7 +8342,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8388,20 +8362,22 @@
         <v>42</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>137</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>332</v>
+        <v>205</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>334</v>
+        <v>208</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8461,10 +8437,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>335</v>
+        <v>209</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8472,7 +8448,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8483,7 +8459,7 @@
         <v>40</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>42</v>
@@ -8495,19 +8471,19 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8532,11 +8508,11 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>342</v>
+        <v>90</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8553,15 +8529,11 @@
       <c r="AD66" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE66" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="AE66" s="2"/>
       <c r="AF66" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG66" s="2"/>
       <c r="AH66" t="s" s="2">
         <v>42</v>
       </c>
@@ -8569,10 +8541,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8580,7 +8552,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8591,7 +8563,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8603,15 +8575,17 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>62</v>
+        <v>354</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8659,11 +8633,15 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" s="2"/>
+      <c r="AE67" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8671,10 +8649,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>42</v>
+        <v>357</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>64</v>
+        <v>358</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8682,18 +8660,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8705,16 +8683,16 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>67</v>
+        <v>360</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>68</v>
+        <v>361</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>70</v>
+        <v>363</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8763,11 +8741,15 @@
       <c r="AD68" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE68" s="2"/>
+      <c r="AE68" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG68" s="2"/>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8775,10 +8757,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>64</v>
+        <v>365</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8786,7 +8768,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8797,7 +8779,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8806,22 +8788,22 @@
         <v>42</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>367</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>164</v>
+        <v>368</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>165</v>
+        <v>369</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>166</v>
+        <v>370</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -8869,22 +8851,26 @@
       <c r="AD69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE69" s="2"/>
+      <c r="AE69" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG69" s="2"/>
+      <c r="AG69" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>42</v>
+        <v>372</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>169</v>
+        <v>373</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>170</v>
+        <v>374</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8892,7 +8878,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8912,23 +8898,19 @@
         <v>42</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8987,10 +8969,10 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>215</v>
+        <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8998,18 +8980,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -9021,20 +9003,18 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>351</v>
+        <v>68</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
       </c>
@@ -9058,11 +9038,13 @@
         <v>42</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X71" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y71" t="s" s="2">
-        <v>355</v>
+        <v>42</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>42</v>
@@ -9091,10 +9073,10 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>356</v>
+        <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>357</v>
+        <v>64</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9102,39 +9084,39 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>359</v>
+        <v>67</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>362</v>
+        <v>70</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9183,15 +9165,11 @@
       <c r="AD72" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE72" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="AE72" s="2"/>
       <c r="AF72" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG72" s="2"/>
       <c r="AH72" t="s" s="2">
         <v>42</v>
       </c>
@@ -9199,10 +9177,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>364</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9210,7 +9188,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9221,7 +9199,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
@@ -9233,17 +9211,15 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9291,26 +9267,22 @@
       <c r="AD73" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE73" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="AE73" s="2"/>
       <c r="AF73" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9318,7 +9290,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9329,7 +9301,7 @@
         <v>40</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>42</v>
@@ -9341,20 +9313,16 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9401,26 +9369,22 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" t="s" s="2">
-        <v>372</v>
-      </c>
+      <c r="AE74" s="2"/>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9428,7 +9392,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9451,16 +9415,20 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9484,13 +9452,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -9519,10 +9487,10 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9530,18 +9498,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -9553,18 +9521,18 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9626,7 +9594,7 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9634,40 +9602,38 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>218</v>
+        <v>406</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -9727,10 +9693,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9738,7 +9704,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9749,7 +9715,7 @@
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
@@ -9758,19 +9724,23 @@
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9817,22 +9787,26 @@
       <c r="AD78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE78" s="2"/>
+      <c r="AE78" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" s="2"/>
+      <c r="AG78" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH78" t="s" s="2">
-        <v>390</v>
+        <v>42</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9840,7 +9814,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9863,13 +9837,13 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>394</v>
+        <v>62</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>395</v>
+        <v>63</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9925,16 +9899,16 @@
       </c>
       <c r="AG79" s="2"/>
       <c r="AH79" t="s" s="2">
-        <v>390</v>
+        <v>42</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>391</v>
+        <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>396</v>
+        <v>64</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9942,18 +9916,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -9965,20 +9939,18 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>398</v>
+        <v>68</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>399</v>
+        <v>69</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10002,13 +9974,13 @@
         <v>42</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>402</v>
+        <v>42</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>403</v>
+        <v>42</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>42</v>
@@ -10037,10 +10009,10 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>404</v>
+        <v>42</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>330</v>
+        <v>64</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10048,41 +10020,41 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>406</v>
+        <v>67</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>407</v>
+        <v>212</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>42</v>
       </c>
@@ -10144,7 +10116,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>410</v>
+        <v>125</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10152,7 +10124,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10175,22 +10147,26 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>42</v>
@@ -10208,13 +10184,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -10243,10 +10219,10 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>391</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10254,7 +10230,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10262,10 +10238,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
@@ -10274,23 +10250,19 @@
         <v>42</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10337,15 +10309,11 @@
       <c r="AD83" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE83" t="s" s="2">
-        <v>415</v>
-      </c>
+      <c r="AE83" s="2"/>
       <c r="AF83" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG83" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG83" s="2"/>
       <c r="AH83" t="s" s="2">
         <v>42</v>
       </c>
@@ -10353,10 +10321,10 @@
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10364,7 +10332,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10375,7 +10343,7 @@
         <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -10384,19 +10352,23 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>53</v>
+        <v>367</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>62</v>
+        <v>434</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10443,11 +10415,15 @@
       <c r="AD84" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE84" s="2"/>
+      <c r="AE84" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG84" s="2"/>
+      <c r="AG84" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10455,10 +10431,10 @@
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>64</v>
+        <v>438</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>42</v>
@@ -10466,18 +10442,18 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>42</v>
@@ -10489,17 +10465,15 @@
         <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -10570,11 +10544,11 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>384</v>
+        <v>66</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10587,7 +10561,7 @@
         <v>42</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>42</v>
@@ -10596,10 +10570,10 @@
         <v>67</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>385</v>
+        <v>69</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>70</v>
@@ -10666,7 +10640,7 @@
         <v>42</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
@@ -10674,49 +10648,47 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>426</v>
+        <v>212</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P87" s="2"/>
       <c r="Q87" t="s" s="2">
-        <v>430</v>
+        <v>42</v>
       </c>
       <c r="R87" t="s" s="2">
         <v>42</v>
@@ -10734,13 +10706,13 @@
         <v>42</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>431</v>
+        <v>42</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>432</v>
+        <v>42</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>42</v>
@@ -10769,10 +10741,10 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK87" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -10780,7 +10752,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10800,19 +10772,21 @@
         <v>42</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>435</v>
+        <v>150</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
       </c>
@@ -10836,13 +10810,13 @@
         <v>42</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -10865,24 +10839,24 @@
       </c>
       <c r="AG88" s="2"/>
       <c r="AH88" t="s" s="2">
-        <v>42</v>
+        <v>445</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>438</v>
+        <v>245</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10893,7 +10867,7 @@
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -10905,19 +10879,19 @@
         <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>441</v>
+        <v>305</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -10965,15 +10939,11 @@
       <c r="AD89" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE89" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="AE89" s="2"/>
       <c r="AF89" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG89" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG89" s="2"/>
       <c r="AH89" t="s" s="2">
         <v>42</v>
       </c>
@@ -10981,10 +10951,10 @@
         <v>42</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>42</v>
@@ -10992,7 +10962,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11015,16 +10985,20 @@
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
       </c>
@@ -11048,13 +11022,11 @@
         <v>42</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>42</v>
@@ -11077,16 +11049,16 @@
       </c>
       <c r="AG90" s="2"/>
       <c r="AH90" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>64</v>
+        <v>315</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>42</v>
@@ -11094,11 +11066,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11117,18 +11089,20 @@
         <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>67</v>
+        <v>367</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>68</v>
+        <v>457</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>69</v>
+        <v>369</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
       </c>
@@ -11187,10 +11161,10 @@
         <v>42</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>42</v>
+        <v>373</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>64</v>
+        <v>374</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>42</v>
@@ -11198,40 +11172,38 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>218</v>
+        <v>62</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>42</v>
@@ -11294,7 +11266,7 @@
         <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>42</v>
@@ -11302,18 +11274,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -11322,21 +11294,21 @@
         <v>42</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>449</v>
+        <v>68</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -11360,13 +11332,13 @@
         <v>42</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>42</v>
@@ -11389,60 +11361,58 @@
       </c>
       <c r="AG93" s="2"/>
       <c r="AH93" t="s" s="2">
-        <v>451</v>
+        <v>42</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>252</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>453</v>
+        <v>67</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>454</v>
+        <v>212</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -11501,10 +11471,10 @@
         <v>42</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>457</v>
+        <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>458</v>
+        <v>125</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>42</v>
@@ -11512,7 +11482,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11535,20 +11505,16 @@
         <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>159</v>
+        <v>381</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>460</v>
+        <v>382</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
       </c>
@@ -11572,11 +11538,13 @@
         <v>42</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X95" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y95" t="s" s="2">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>42</v>
@@ -11599,16 +11567,16 @@
       </c>
       <c r="AG95" s="2"/>
       <c r="AH95" t="s" s="2">
-        <v>320</v>
+        <v>384</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>125</v>
+        <v>385</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>321</v>
+        <v>386</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>42</v>
@@ -11627,7 +11595,7 @@
         <v>40</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>42</v>
@@ -11639,20 +11607,16 @@
         <v>42</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>463</v>
+        <v>388</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>42</v>
       </c>
@@ -11705,16 +11669,16 @@
       </c>
       <c r="AG96" s="2"/>
       <c r="AH96" t="s" s="2">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>42</v>
@@ -11722,7 +11686,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11745,16 +11709,20 @@
         <v>42</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
       </c>
@@ -11778,13 +11746,13 @@
         <v>42</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>42</v>
@@ -11813,10 +11781,10 @@
         <v>42</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>64</v>
+        <v>324</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>42</v>
@@ -11824,18 +11792,18 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>42</v>
@@ -11847,18 +11815,18 @@
         <v>42</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>67</v>
+        <v>400</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>68</v>
+        <v>401</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
       </c>
@@ -11920,7 +11888,7 @@
         <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>42</v>
@@ -11928,40 +11896,38 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>218</v>
+        <v>406</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -12021,533 +11987,17 @@
         <v>42</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE100" s="2"/>
-      <c r="AF100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG100" s="2"/>
-      <c r="AH100" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE101" s="2"/>
-      <c r="AF101" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG101" s="2"/>
-      <c r="AH101" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE102" s="2"/>
-      <c r="AF102" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG102" s="2"/>
-      <c r="AH102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE103" s="2"/>
-      <c r="AF103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG103" s="2"/>
-      <c r="AH103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE104" s="2"/>
-      <c r="AF104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG104" s="2"/>
-      <c r="AH104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AL104" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL104">
+  <autoFilter ref="A1:AL99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12557,7 +12007,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI103">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/oncocore-TNMClinicalStageGroup.xlsx
+++ b/docs/oncocore-TNMClinicalStageGroup.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -150,7 +150,8 @@
     <t>oncocore-TNMClinicalStageGroup</t>
   </si>
   <si>
-    <t>The overall stage of the cancer, assessed using tests that are done before surgery. These include physical exams, imaging tests, laboratory tests (such as blood tests), and biopsies. (adapted from NCI Dictionary of Cancer Terms).</t>
+    <t>A panel of TNM staging classifications, based on information obtained prior to neoadjuvant treatment and surgery, e.g. based on evidence such as physical examination, imaging, and/or biopsy.
+This class is/conforms to CancerStageGroup and can be used where a reference to CancerStageGroup appears.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as lab reports, etc.</t>
@@ -433,145 +434,193 @@
     <t>Cancer condition this information relates to.</t>
   </si>
   <si>
-    <t>cancerstagetiming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension]]} {[]}
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Indicates when staging was done, in terms of treatment landmarks.</t>
-  </si>
-  <si>
-    <t>Observation.extension.id</t>
+    <t>Unique Id for this particular observation</t>
+  </si>
+  <si>
+    <t>A unique identifier for the simple observation instance.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>OBX.21</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Fixed_21908-9</t>
+  </si>
+  <si>
+    <t>Stage group.clinical Cancer</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://loinc.org"/&gt;</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
   </si>
   <si>
     <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageTiming-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerStageTimingVS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:code}
-</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Fixed_385349001</t>
-  </si>
-  <si>
-    <t>Clinical stage (observable entity)</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.extension.valueCodeableConcept.coding.version</t>
-  </si>
-  <si>
     <t>Version of the system - if relevant</t>
   </si>
   <si>
@@ -587,7 +636,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.extension.valueCodeableConcept.coding.code</t>
+    <t>Observation.code.coding.code</t>
   </si>
   <si>
     <t>Symbol in syntax defined by the system</t>
@@ -599,7 +648,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="385349001"/&gt;</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="21908-9"/&gt;</t>
   </si>
   <si>
     <t>C*E.1</t>
@@ -608,7 +657,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.extension.valueCodeableConcept.coding.display</t>
+    <t>Observation.code.coding.display</t>
   </si>
   <si>
     <t>Representation defined by the system</t>
@@ -626,7 +675,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.extension.valueCodeableConcept.coding.userSelected</t>
+    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t xml:space="preserve">boolean {[]} {[]}
@@ -651,7 +700,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.extension.valueCodeableConcept.text</t>
+    <t>Observation.code.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -670,160 +719,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Unique Id for this particular observation</t>
-  </si>
-  <si>
-    <t>A unique identifier for the simple observation instance.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>OBX.21</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.  This is used  for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set.   More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in Observation.code.</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>Fixed_21908-9</t>
-  </si>
-  <si>
-    <t>Stage group.clinical Cancer</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://loinc.org"/&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="21908-9"/&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -964,7 +859,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>http://loinc.org/vs/LL240-3</t>
+    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/StageGroupVS</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1059,7 +954,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1298,12 +1193,25 @@
     <t>Normally, an observation will have either a value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and a set of related observations or sometimes QuestionnaireResponse  from which the measure is derived.</t>
   </si>
   <si>
+    <t>profile:target.reference}
+profile:target.reference}profile:target.reference}</t>
+  </si>
+  <si>
     <t>Relationships established by OBX-4 usage</t>
   </si>
   <si>
     <t>outBoundRelationship</t>
   </si>
   <si>
+    <t>oncocore-TNMClinicalPrimaryTumorClassification</t>
+  </si>
+  <si>
+    <t>TNMClinicalPrimaryTumorClassification</t>
+  </si>
+  <si>
+    <t>Classification of the primary tumor, based on its size and extent, assessed prior to surgery, based on evidence such as physical examination, imaging, and/or biopsy.</t>
+  </si>
+  <si>
     <t>Observation.related.id</t>
   </si>
   <si>
@@ -1343,7 +1251,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Observation]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-TNMClinicalPrimaryTumorClassification]]}
 </t>
   </si>
   <si>
@@ -1354,6 +1262,32 @@
   </si>
   <si>
     <t>.targetObservation</t>
+  </si>
+  <si>
+    <t>oncocore-TNMClinicalRegionalNodesClassification</t>
+  </si>
+  <si>
+    <t>TNMClinicalRegionalNodesClassification</t>
+  </si>
+  <si>
+    <t>Classification of the presence or absence of metastases in regional lymph nodes, assessed using tests that are done before surgery. These include physical exams, imaging tests, laboratory tests (such as blood tests), and biopsies. (adapted from NCI Dictionary of Cancer Terms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-TNMClinicalRegionalNodesClassification]]}
+</t>
+  </si>
+  <si>
+    <t>oncocore-TNMClinicalDistantMetastasesClassification</t>
+  </si>
+  <si>
+    <t>TNMClinicalDistantMetastasesClassification</t>
+  </si>
+  <si>
+    <t>Classification of the presence or absense of metastases in remote anatomical locations, assessed using tests that are done before surgery. These include physical exams, imaging tests, laboratory tests (such as blood tests), and biopsies. (adapted from NCI Dictionary of Cancer Terms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-TNMClinicalDistantMetastasesClassification]]}
+</t>
   </si>
   <si>
     <t>Observation.component</t>
@@ -1603,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM99"/>
+  <dimension ref="A1:AM95"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1612,8 +1546,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.95703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.83984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1638,7 +1572,7 @@
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="44.61328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -3230,7 +3164,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
@@ -3430,38 +3364,40 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B18" t="s" s="2">
         <v>133</v>
       </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
@@ -3509,15 +3445,11 @@
       <c r="AD18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE18" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE18" s="2"/>
       <c r="AF18" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3528,7 +3460,7 @@
         <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>42</v>
@@ -3547,7 +3479,7 @@
         <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
@@ -3562,13 +3494,15 @@
         <v>137</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3615,15 +3549,11 @@
       <c r="AD19" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE19" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE19" s="2"/>
       <c r="AF19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3631,18 +3561,18 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>42</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3650,31 +3580,33 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3698,13 +3630,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3721,15 +3653,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>143</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3737,18 +3665,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>42</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3756,7 +3684,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>51</v>
@@ -3771,22 +3699,24 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>42</v>
@@ -3804,13 +3734,13 @@
         <v>42</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>42</v>
@@ -3827,15 +3757,11 @@
       <c r="AD21" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE21" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" t="s" s="2">
         <v>42</v>
       </c>
@@ -3846,15 +3772,15 @@
         <v>42</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>42</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3874,19 +3800,21 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3910,11 +3838,13 @@
         <v>42</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>42</v>
@@ -3931,15 +3861,11 @@
       <c r="AD22" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE22" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="AE22" s="2"/>
       <c r="AF22" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" t="s" s="2">
         <v>42</v>
       </c>
@@ -3947,18 +3873,18 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4060,7 +3986,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4164,7 +4090,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4190,16 +4116,16 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4236,7 +4162,7 @@
         <v>42</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" t="s" s="2">
@@ -4257,10 +4183,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -4268,10 +4194,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>42</v>
@@ -4296,10 +4222,10 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4372,7 +4298,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4474,7 +4400,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4578,7 +4504,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4604,23 +4530,23 @@
         <v>81</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4673,10 +4599,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4684,7 +4610,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4707,16 +4633,16 @@
         <v>52</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4777,10 +4703,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4788,7 +4714,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4814,21 +4740,21 @@
         <v>104</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>42</v>
@@ -4881,10 +4807,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4892,7 +4818,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4915,17 +4841,17 @@
         <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
@@ -4985,10 +4911,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4996,7 +4922,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5019,19 +4945,19 @@
         <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -5091,10 +5017,10 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>42</v>
@@ -5102,7 +5028,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5125,19 +5051,19 @@
         <v>52</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>42</v>
@@ -5197,10 +5123,10 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>42</v>
@@ -5208,41 +5134,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I35" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5289,11 +5217,15 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" s="2"/>
+      <c r="AE35" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" s="2"/>
+      <c r="AG35" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5301,18 +5233,18 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5323,7 +5255,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5335,17 +5267,17 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5405,18 +5337,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5424,7 +5356,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>51</v>
@@ -5433,23 +5365,25 @@
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5474,13 +5408,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5509,18 +5443,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5540,19 +5474,19 @@
         <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5578,13 +5512,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5613,18 +5547,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5632,10 +5566,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>42</v>
@@ -5647,17 +5581,17 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5682,13 +5616,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5717,18 +5651,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5748,16 +5682,16 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
+        <v>270</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5784,13 +5718,11 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X40" s="2"/>
       <c r="Y40" t="s" s="2">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5807,11 +5739,15 @@
       <c r="AD40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE40" s="2"/>
+      <c r="AE40" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG40" s="2"/>
+      <c r="AG40" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5822,7 +5758,7 @@
         <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>42</v>
@@ -5830,18 +5766,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5853,18 +5789,20 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>68</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
       </c>
@@ -5888,13 +5826,11 @@
         <v>42</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X41" s="2"/>
       <c r="Y41" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>42</v>
@@ -5917,16 +5853,16 @@
       </c>
       <c r="AG41" s="2"/>
       <c r="AH41" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>42</v>
@@ -5934,19 +5870,19 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>42</v>
+        <v>282</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5954,22 +5890,20 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -5994,26 +5928,28 @@
         <v>42</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>42</v>
+        <v>287</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
@@ -6027,10 +5963,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>164</v>
+        <v>289</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -6038,17 +5974,15 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>51</v>
@@ -6060,19 +5994,21 @@
         <v>42</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6131,10 +6067,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>42</v>
+        <v>295</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6142,7 +6078,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6153,7 +6089,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6165,16 +6101,20 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6198,13 +6138,11 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6221,11 +6159,15 @@
       <c r="AD44" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE44" s="2"/>
+      <c r="AE44" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG44" s="2"/>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6233,10 +6175,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6244,18 +6186,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6267,17 +6209,15 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6348,18 +6288,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6368,29 +6308,27 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>255</v>
+        <v>42</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>42</v>
@@ -6443,10 +6381,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6454,7 +6392,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6465,7 +6403,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6477,18 +6415,20 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6547,10 +6487,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6558,7 +6498,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6581,24 +6521,26 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>42</v>
@@ -6651,10 +6593,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6662,7 +6604,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6682,20 +6624,22 @@
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N49" t="s" s="2">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
@@ -6720,13 +6664,11 @@
         <v>42</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X49" s="2"/>
       <c r="Y49" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>42</v>
@@ -6755,10 +6697,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6766,7 +6708,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6777,7 +6719,7 @@
         <v>40</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>42</v>
@@ -6786,23 +6728,21 @@
         <v>42</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6849,11 +6789,15 @@
       <c r="AD50" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE50" s="2"/>
+      <c r="AE50" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG50" s="2"/>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH50" t="s" s="2">
         <v>42</v>
       </c>
@@ -6861,10 +6805,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>203</v>
+        <v>323</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6872,7 +6816,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6883,7 +6827,7 @@
         <v>40</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>42</v>
@@ -6892,23 +6836,21 @@
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>137</v>
+        <v>325</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6955,11 +6897,15 @@
       <c r="AD51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE51" s="2"/>
+      <c r="AE51" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG51" s="2"/>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6967,10 +6913,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>209</v>
+        <v>329</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6978,7 +6924,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6986,10 +6932,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>42</v>
@@ -6998,22 +6944,22 @@
         <v>42</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>264</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7062,33 +7008,33 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>270</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7111,18 +7057,16 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>272</v>
+        <v>53</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7181,29 +7125,29 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>276</v>
+        <v>42</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>277</v>
+        <v>64</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>278</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>42</v>
@@ -7212,23 +7156,21 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>284</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>42</v>
       </c>
@@ -7287,50 +7229,50 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>285</v>
+        <v>42</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>286</v>
+        <v>64</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>287</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7391,18 +7333,18 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>293</v>
+        <v>125</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>294</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7413,7 +7355,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7422,21 +7364,19 @@
         <v>42</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7489,24 +7429,24 @@
       </c>
       <c r="AG56" s="2"/>
       <c r="AH56" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>302</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7526,16 +7466,16 @@
         <v>42</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>150</v>
+        <v>346</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>305</v>
+        <v>354</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7562,11 +7502,13 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7583,26 +7525,22 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="AE57" s="2"/>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG57" s="2"/>
       <c r="AH57" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>42</v>
+        <v>355</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>42</v>
@@ -7610,7 +7548,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7633,19 +7571,19 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -7672,9 +7610,11 @@
       <c r="W58" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="X58" s="2"/>
+      <c r="X58" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="Y58" t="s" s="2">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7697,16 +7637,16 @@
       </c>
       <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>125</v>
+        <v>363</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7714,11 +7654,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7737,17 +7677,17 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>150</v>
+        <v>365</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -7772,13 +7712,13 @@
         <v>42</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>321</v>
+        <v>42</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7807,10 +7747,10 @@
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>323</v>
+        <v>42</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7818,7 +7758,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7841,18 +7781,16 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>42</v>
       </c>
@@ -7911,10 +7849,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7922,7 +7860,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7933,7 +7871,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7942,22 +7880,22 @@
         <v>42</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -7982,35 +7920,35 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>337</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="AB61" s="2"/>
       <c r="AC61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
@@ -8019,10 +7957,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8030,9 +7968,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8050,16 +7990,16 @@
         <v>42</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>383</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
+        <v>384</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8109,11 +8049,15 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" s="2"/>
+      <c r="AE62" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" s="2"/>
+      <c r="AG62" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8121,10 +8065,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>42</v>
+        <v>380</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>64</v>
+        <v>381</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8132,18 +8076,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8155,17 +8099,15 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8236,11 +8178,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8256,23 +8198,21 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8331,10 +8271,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8342,43 +8282,41 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>206</v>
+        <v>344</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>42</v>
       </c>
@@ -8437,10 +8375,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8448,7 +8386,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8471,26 +8409,26 @@
         <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>42</v>
@@ -8508,11 +8446,13 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8541,10 +8481,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8552,7 +8492,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>397</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8560,10 +8500,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8575,17 +8515,15 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>353</v>
+        <v>398</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
@@ -8633,15 +8571,11 @@
       <c r="AD67" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE67" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="AE67" s="2"/>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG67" s="2"/>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8649,10 +8583,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>357</v>
+        <v>42</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8660,9 +8594,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B68" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="C68" t="s" s="2">
         <v>42</v>
       </c>
@@ -8671,7 +8607,7 @@
         <v>40</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>42</v>
@@ -8680,20 +8616,18 @@
         <v>42</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8742,13 +8676,13 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>42</v>
@@ -8757,10 +8691,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8768,7 +8702,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8779,7 +8713,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>42</v>
@@ -8791,20 +8725,16 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>367</v>
+        <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>368</v>
+        <v>62</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8851,26 +8781,22 @@
       <c r="AD69" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE69" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="AE69" s="2"/>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG69" s="2"/>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>372</v>
+        <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>374</v>
+        <v>64</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8878,18 +8804,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8901,15 +8827,17 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -8980,11 +8908,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -8997,7 +8925,7 @@
         <v>42</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>42</v>
@@ -9006,10 +8934,10 @@
         <v>67</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>70</v>
@@ -9076,7 +9004,7 @@
         <v>42</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>42</v>
@@ -9084,47 +9012,49 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>212</v>
+        <v>389</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>42</v>
@@ -9142,13 +9072,13 @@
         <v>42</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>42</v>
@@ -9177,10 +9107,10 @@
         <v>42</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>125</v>
+        <v>396</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9188,7 +9118,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9196,7 +9126,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>51</v>
@@ -9211,13 +9141,13 @@
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9273,16 +9203,16 @@
       </c>
       <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9290,9 +9220,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>42</v>
       </c>
@@ -9310,16 +9242,16 @@
         <v>42</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9369,22 +9301,26 @@
       <c r="AD74" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE74" s="2"/>
+      <c r="AE74" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG74" s="2"/>
+      <c r="AG74" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH74" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9392,7 +9328,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9415,20 +9351,16 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>392</v>
+        <v>62</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9452,13 +9384,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>396</v>
+        <v>42</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>397</v>
+        <v>42</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -9487,10 +9419,10 @@
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>324</v>
+        <v>64</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9498,18 +9430,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>42</v>
@@ -9521,18 +9453,18 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>400</v>
+        <v>67</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>42</v>
       </c>
@@ -9594,7 +9526,7 @@
         <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>404</v>
+        <v>64</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9602,38 +9534,40 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>406</v>
+        <v>134</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M77" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
@@ -9693,10 +9627,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>385</v>
+        <v>42</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>408</v>
+        <v>125</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9704,7 +9638,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9715,7 +9649,7 @@
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
@@ -9724,29 +9658,29 @@
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>367</v>
+        <v>104</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>42</v>
+        <v>393</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>42</v>
@@ -9764,13 +9698,13 @@
         <v>42</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>42</v>
+        <v>394</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>42</v>
+        <v>395</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>42</v>
@@ -9787,15 +9721,11 @@
       <c r="AD78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE78" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="AE78" s="2"/>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG78" s="2"/>
       <c r="AH78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9803,10 +9733,10 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>414</v>
+        <v>125</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9814,7 +9744,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9822,7 +9752,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>51</v>
@@ -9837,13 +9767,13 @@
         <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>53</v>
+        <v>409</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>62</v>
+        <v>399</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>63</v>
+        <v>400</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9908,7 +9838,7 @@
         <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>64</v>
+        <v>401</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9916,18 +9846,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -9936,21 +9866,23 @@
         <v>42</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>69</v>
+        <v>412</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
@@ -9997,11 +9929,15 @@
       <c r="AD80" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE80" s="2"/>
+      <c r="AE80" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG80" s="2"/>
+      <c r="AG80" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH80" t="s" s="2">
         <v>42</v>
       </c>
@@ -10009,10 +9945,10 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>42</v>
+        <v>414</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>64</v>
+        <v>415</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>42</v>
@@ -10020,40 +9956,38 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>42</v>
@@ -10116,7 +10050,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10124,18 +10058,18 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
@@ -10147,26 +10081,24 @@
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>420</v>
+        <v>68</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>421</v>
+        <v>69</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>424</v>
+        <v>42</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>42</v>
@@ -10184,13 +10116,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>425</v>
+        <v>42</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>426</v>
+        <v>42</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -10219,10 +10151,10 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>427</v>
+        <v>64</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10230,38 +10162,40 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>429</v>
+        <v>67</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>430</v>
+        <v>134</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -10324,7 +10258,7 @@
         <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>432</v>
+        <v>125</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10332,7 +10266,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10340,10 +10274,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -10355,19 +10289,17 @@
         <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>367</v>
+        <v>153</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="M84" s="2"/>
       <c r="N84" t="s" s="2">
-        <v>436</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -10392,13 +10324,13 @@
         <v>42</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>42</v>
@@ -10415,34 +10347,30 @@
       <c r="AD84" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE84" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="AE84" s="2"/>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG84" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG84" s="2"/>
       <c r="AH84" t="s" s="2">
-        <v>42</v>
+        <v>422</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>437</v>
+        <v>167</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>438</v>
+        <v>168</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>42</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10462,19 +10390,23 @@
         <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>53</v>
+        <v>424</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>62</v>
+        <v>425</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10533,10 +10465,10 @@
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>64</v>
+        <v>429</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10544,18 +10476,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>42</v>
@@ -10567,18 +10499,20 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>69</v>
+        <v>275</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>42</v>
       </c>
@@ -10602,13 +10536,11 @@
         <v>42</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X86" s="2"/>
       <c r="Y86" t="s" s="2">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>42</v>
@@ -10631,16 +10563,16 @@
       </c>
       <c r="AG86" s="2"/>
       <c r="AH86" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>42</v>
@@ -10648,11 +10580,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10665,24 +10597,26 @@
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>67</v>
+        <v>332</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>212</v>
+        <v>434</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>42</v>
       </c>
@@ -10741,10 +10675,10 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>125</v>
+        <v>339</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -10752,7 +10686,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10760,7 +10694,7 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>51</v>
@@ -10772,21 +10706,19 @@
         <v>42</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>443</v>
+        <v>62</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>444</v>
+        <v>63</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>42</v>
       </c>
@@ -10810,13 +10742,13 @@
         <v>42</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>242</v>
+        <v>42</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -10839,35 +10771,35 @@
       </c>
       <c r="AG88" s="2"/>
       <c r="AH88" t="s" s="2">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>244</v>
+        <v>42</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>245</v>
+        <v>64</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>42</v>
@@ -10876,23 +10808,21 @@
         <v>42</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>447</v>
+        <v>67</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>448</v>
+        <v>68</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>305</v>
+        <v>69</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>42</v>
       </c>
@@ -10951,10 +10881,10 @@
         <v>42</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>451</v>
+        <v>42</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>452</v>
+        <v>64</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>42</v>
@@ -10962,43 +10892,41 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>454</v>
+        <v>134</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>42</v>
       </c>
@@ -11022,11 +10950,13 @@
         <v>42</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X90" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y90" t="s" s="2">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>42</v>
@@ -11049,16 +10979,16 @@
       </c>
       <c r="AG90" s="2"/>
       <c r="AH90" t="s" s="2">
-        <v>314</v>
+        <v>42</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ90" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK90" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>42</v>
@@ -11066,7 +10996,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11077,7 +11007,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -11089,20 +11019,16 @@
         <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>457</v>
+        <v>347</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>42</v>
       </c>
@@ -11155,16 +11081,16 @@
       </c>
       <c r="AG91" s="2"/>
       <c r="AH91" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>42</v>
@@ -11172,7 +11098,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11195,13 +11121,13 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>53</v>
+        <v>346</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>62</v>
+        <v>353</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>63</v>
+        <v>354</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11257,16 +11183,16 @@
       </c>
       <c r="AG92" s="2"/>
       <c r="AH92" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>42</v>
@@ -11274,18 +11200,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -11297,18 +11223,20 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>69</v>
+        <v>358</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>42</v>
       </c>
@@ -11332,13 +11260,13 @@
         <v>42</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>42</v>
+        <v>362</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>42</v>
@@ -11367,10 +11295,10 @@
         <v>42</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>42</v>
@@ -11378,41 +11306,41 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O94" t="s" s="2">
         <v>42</v>
       </c>
@@ -11474,7 +11402,7 @@
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>125</v>
+        <v>369</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>42</v>
@@ -11482,7 +11410,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11505,13 +11433,13 @@
         <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11567,437 +11495,23 @@
       </c>
       <c r="AG95" s="2"/>
       <c r="AH95" t="s" s="2">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE96" s="2"/>
-      <c r="AF96" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG96" s="2"/>
-      <c r="AH96" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE97" s="2"/>
-      <c r="AF97" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG97" s="2"/>
-      <c r="AH97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE98" s="2"/>
-      <c r="AF98" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG98" s="2"/>
-      <c r="AH98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE99" s="2"/>
-      <c r="AF99" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG99" s="2"/>
-      <c r="AH99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL99" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL99">
+  <autoFilter ref="A1:AL95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12007,7 +11521,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI98">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
